--- a/TemperatureL.xlsx
+++ b/TemperatureL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhasa\Documents\CS50\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhasa\Documents\CS50\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B4A9E7-599E-4B15-8EB5-370C719A6BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B72592-5374-4C08-AAB1-56A8313C6FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6B5A56D2-75FD-4610-94B5-4666ED7C3CDE}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>temperature_c</t>
   </si>
   <si>
-    <t>pressure _bar</t>
-  </si>
-  <si>
     <t>entropy_J_gK</t>
   </si>
   <si>
@@ -59,7 +56,10 @@
     <t>u_kJ_kg</t>
   </si>
   <si>
-    <t>enthalpy_ kJ_kg</t>
+    <t>pressure_bar</t>
+  </si>
+  <si>
+    <t>enthalpy_kJ_kg</t>
   </si>
 </sst>
 </file>
@@ -457,38 +457,38 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.36328125" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
     <col min="4" max="4" width="19.6328125" customWidth="1"/>
     <col min="5" max="5" width="18.453125" customWidth="1"/>
     <col min="6" max="6" width="19.7265625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1673,20 +1673,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7e27dc34-9a55-4451-bf28-132404c5ea79" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7e27dc34-9a55-4451-bf28-132404c5ea79" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1911,6 +1911,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE890B2-E58C-4589-9DA8-3378EED573EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4E85CDB-AF50-4F46-A272-F988B644F87A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -1923,14 +1931,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE890B2-E58C-4589-9DA8-3378EED573EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
